--- a/Lista3/freq_palavras.xlsx
+++ b/Lista3/freq_palavras.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7043</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7661</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>263</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>676</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1076</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>594</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>645</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2322</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>771</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8952</v>
+        <v>818</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4211</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1749</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>387</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>288</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>124</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2953</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>244</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>978</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>772</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>131</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>985</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1945</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>10130</v>
+        <v>854</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>221</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>168</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>320</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>323</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>230</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>198</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1701</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>182</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>165</v>
+        <v>81</v>
       </c>
     </row>
     <row r="174">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>388</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>190</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>326</v>
+        <v>82</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>133</v>
+        <v>57</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>138</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>121</v>
+        <v>57</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>210</v>
+        <v>76</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>385</v>
+        <v>119</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>430</v>
+        <v>82</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>256</v>
+        <v>78</v>
       </c>
     </row>
     <row r="328">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="336">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>399</v>
+        <v>83</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>128</v>
+        <v>46</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="349">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="367">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="377">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="379">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="408">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="412">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="426">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>234</v>
+        <v>96</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="439">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="448">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>370</v>
+        <v>124</v>
       </c>
     </row>
     <row r="450">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="452">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="463">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="465">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="467">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="473">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="475">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="479">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="481">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="484">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="489">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="501">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="510">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="513">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="514">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="516">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>142</v>
+        <v>58</v>
       </c>
     </row>
     <row r="521">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="525">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="534">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="537">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="538">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="549">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="555">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="559">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="572">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="578">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="579">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="581">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="583">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="589">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="590">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="595">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="600">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="612">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="625">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="626">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="628">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="631">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="632">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="637">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="639">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="640">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="641">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="645">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>238</v>
+        <v>54</v>
       </c>
     </row>
     <row r="648">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="650">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="651">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="653">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="658">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="659">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="660">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>210</v>
+        <v>84</v>
       </c>
     </row>
     <row r="672">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="674">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="675">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="679">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="686">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="687">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="688">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="689">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="693">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="700">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="701">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="705">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="708">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="711">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="713">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="718">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="725">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="727">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="731">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="732">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="736">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="737">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="738">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="740">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="742">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="743">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="B746" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="755">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="756">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="757">
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="758">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="760">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="761">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="763">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="766">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="775">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="781">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="783">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="790">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="B798" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="799">
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="804">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="B804" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="805">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="B808" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="809">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="817">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="B818" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="819">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="820">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="B842" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="843">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="B843" t="n">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="844">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="845">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>283</v>
+        <v>59</v>
       </c>
     </row>
     <row r="850">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="B850" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -8942,7 +8942,7 @@
         </is>
       </c>
       <c r="B851" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="852">
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="B857" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="858">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="B861" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="862">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="B868" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="869">
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="B869" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="870">
@@ -9162,7 +9162,7 @@
         </is>
       </c>
       <c r="B873" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="874">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="B874" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="875">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B875" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="876">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="B882" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="883">
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="B886" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="887">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B888" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="889">
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="B891" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="892">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B892" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="893">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="B895" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="B896" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="B897" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="898">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="B900" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="901">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="B901" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="902">
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="B904" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="905">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="B907" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="908">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="911">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="B915" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916">
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="B922" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="B938" t="n">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="939">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="B941" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="942">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="B942" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="943">
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="B943" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="944">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="B948" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="949">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="B952" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="953">
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="B953" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="954">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="B954" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="955">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="B958" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="959">
@@ -10022,7 +10022,7 @@
         </is>
       </c>
       <c r="B959" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="960">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="B960" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="961">
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="B966" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="967">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="B967" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968">
@@ -10142,7 +10142,7 @@
         </is>
       </c>
       <c r="B971" t="n">
-        <v>153</v>
+        <v>43</v>
       </c>
     </row>
     <row r="972">
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="B974" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="975">
@@ -10212,7 +10212,7 @@
         </is>
       </c>
       <c r="B978" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="979">
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="B983" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="984">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="B994" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="995">
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="B996" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="997">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="B998" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="999">
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B1001" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="B1002" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1003">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="B1008" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1009">
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="B1017" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1018">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="B1020" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1021">
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="B1021" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1022">
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="B1025" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1026">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="B1026" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1027">
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="B1027" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1028">
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="B1029" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1030">
@@ -10802,7 +10802,7 @@
         </is>
       </c>
       <c r="B1037" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1038">
@@ -10842,7 +10842,7 @@
         </is>
       </c>
       <c r="B1041" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1042">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="B1042" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1043">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="B1045" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1046">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="B1048" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1049">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="B1049" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="B1050" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1051">
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="B1056" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1057">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="B1064" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1065">
@@ -11102,7 +11102,7 @@
         </is>
       </c>
       <c r="B1067" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1068">
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="B1074" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1075">
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="B1076" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1077">
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="B1081" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1082">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="B1084" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1085">
@@ -11292,7 +11292,7 @@
         </is>
       </c>
       <c r="B1086" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1087">
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="B1088" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1089">
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="B1090" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1091">
@@ -11372,7 +11372,7 @@
         </is>
       </c>
       <c r="B1094" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1095">
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="B1099" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1100">
@@ -11472,7 +11472,7 @@
         </is>
       </c>
       <c r="B1104" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1105">
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="B1108" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1109">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="B1109" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1110">
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="B1115" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1116">
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="B1116" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1117">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="B1121" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1122">
@@ -11652,7 +11652,7 @@
         </is>
       </c>
       <c r="B1122" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1123">
@@ -11702,7 +11702,7 @@
         </is>
       </c>
       <c r="B1127" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1128">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="B1141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="B1142" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1143">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="B1143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -11892,7 +11892,7 @@
         </is>
       </c>
       <c r="B1146" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1147">
@@ -11902,7 +11902,7 @@
         </is>
       </c>
       <c r="B1147" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1148">
@@ -11912,7 +11912,7 @@
         </is>
       </c>
       <c r="B1148" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1149">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="B1149" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1150">
@@ -11972,7 +11972,7 @@
         </is>
       </c>
       <c r="B1154" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1155">
@@ -11982,7 +11982,7 @@
         </is>
       </c>
       <c r="B1155" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1156">
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="B1156" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1157">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="B1157" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1158">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="B1158" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1159">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="B1159" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1160">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="B1160" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1161">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="B1161" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1162">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="B1162" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1163">
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B1167" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1168">
@@ -12112,7 +12112,7 @@
         </is>
       </c>
       <c r="B1168" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1169">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="B1169" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1170">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="B1173" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1174">
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="B1176" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1177">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="B1193" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1194">
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="B1194" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1195">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="B1198" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1199">
@@ -12422,7 +12422,7 @@
         </is>
       </c>
       <c r="B1199" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1200">
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="B1202" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1203">
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="B1203" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1204">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="B1205" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1206">
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="B1207" t="n">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1208">
@@ -12552,7 +12552,7 @@
         </is>
       </c>
       <c r="B1212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213">
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="B1216" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1217">
@@ -12622,7 +12622,7 @@
         </is>
       </c>
       <c r="B1219" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1220">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="B1221" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1222">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="B1224" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1225">
@@ -12722,7 +12722,7 @@
         </is>
       </c>
       <c r="B1229" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1230">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="B1233" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1234">
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="B1235" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1236">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="B1240" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1241">
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="B1250" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251">
@@ -13052,7 +13052,7 @@
         </is>
       </c>
       <c r="B1262" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1263">
@@ -13112,7 +13112,7 @@
         </is>
       </c>
       <c r="B1268" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1269">
@@ -13182,7 +13182,7 @@
         </is>
       </c>
       <c r="B1275" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1276">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="B1279" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="B1284" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1285">
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="B1290" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1291">
@@ -13372,7 +13372,7 @@
         </is>
       </c>
       <c r="B1294" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="B1296" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="B1298" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1299">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="B1305" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1306">
@@ -13532,7 +13532,7 @@
         </is>
       </c>
       <c r="B1310" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1311">
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="B1312" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1313">
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="B1316" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1317">
@@ -13642,7 +13642,7 @@
         </is>
       </c>
       <c r="B1321" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1322">
@@ -13682,7 +13682,7 @@
         </is>
       </c>
       <c r="B1325" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1326">
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="B1326" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1327">
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="B1328" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1329">
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="B1333" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1334">
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="B1342" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1343">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="B1344" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="B1348" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="B1355" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1356">
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="B1360" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1361">
@@ -14042,7 +14042,7 @@
         </is>
       </c>
       <c r="B1361" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1362">
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="B1362" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1363">
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="B1364" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="B1365" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1366">
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="B1369" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1370">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="B1370" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -14142,7 +14142,7 @@
         </is>
       </c>
       <c r="B1371" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1372">
@@ -14152,7 +14152,7 @@
         </is>
       </c>
       <c r="B1372" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1373">
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="B1375" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1376">
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="B1377" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1378">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="B1380" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1381">
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="B1382" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1383">
@@ -14442,7 +14442,7 @@
         </is>
       </c>
       <c r="B1401" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1402">
@@ -14542,7 +14542,7 @@
         </is>
       </c>
       <c r="B1411" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1412">
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="B1413" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1414">
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="B1418" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1419">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="B1420" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1421">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="B1425" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1426">
@@ -14872,7 +14872,7 @@
         </is>
       </c>
       <c r="B1444" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -14892,7 +14892,7 @@
         </is>
       </c>
       <c r="B1446" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1447">
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="B1447" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -14912,7 +14912,7 @@
         </is>
       </c>
       <c r="B1448" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1449">
@@ -14942,7 +14942,7 @@
         </is>
       </c>
       <c r="B1451" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1452">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="B1483" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1484">
@@ -15282,7 +15282,7 @@
         </is>
       </c>
       <c r="B1485" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -15422,7 +15422,7 @@
         </is>
       </c>
       <c r="B1499" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1500">
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="B1517" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1518">
@@ -15622,7 +15622,7 @@
         </is>
       </c>
       <c r="B1519" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1520">
@@ -15642,7 +15642,7 @@
         </is>
       </c>
       <c r="B1521" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1522">
@@ -15692,7 +15692,7 @@
         </is>
       </c>
       <c r="B1526" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1527">
@@ -15702,7 +15702,7 @@
         </is>
       </c>
       <c r="B1527" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1528">
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="B1531" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -15822,7 +15822,7 @@
         </is>
       </c>
       <c r="B1539" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1540">
@@ -15842,7 +15842,7 @@
         </is>
       </c>
       <c r="B1541" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1542">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="B1545" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1546">
@@ -15892,7 +15892,7 @@
         </is>
       </c>
       <c r="B1546" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -15902,7 +15902,7 @@
         </is>
       </c>
       <c r="B1547" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1548">
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="B1556" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1557">
@@ -16002,7 +16002,7 @@
         </is>
       </c>
       <c r="B1557" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1558">
@@ -16062,7 +16062,7 @@
         </is>
       </c>
       <c r="B1563" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1564">
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="B1564" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1565">
@@ -16142,7 +16142,7 @@
         </is>
       </c>
       <c r="B1571" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1572">
@@ -16162,7 +16162,7 @@
         </is>
       </c>
       <c r="B1573" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1574">
@@ -16182,7 +16182,7 @@
         </is>
       </c>
       <c r="B1575" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1576">
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="B1576" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1577">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="B1579" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1580">
@@ -16242,7 +16242,7 @@
         </is>
       </c>
       <c r="B1581" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1582">
@@ -16252,7 +16252,7 @@
         </is>
       </c>
       <c r="B1582" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1583">
@@ -16332,7 +16332,7 @@
         </is>
       </c>
       <c r="B1590" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1591">
@@ -16422,7 +16422,7 @@
         </is>
       </c>
       <c r="B1599" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1600">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="B1602" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1603">
@@ -16512,7 +16512,7 @@
         </is>
       </c>
       <c r="B1608" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1609">
@@ -16532,7 +16532,7 @@
         </is>
       </c>
       <c r="B1610" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1611">
@@ -16542,7 +16542,7 @@
         </is>
       </c>
       <c r="B1611" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1612">
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="B1612" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1613">
@@ -16562,7 +16562,7 @@
         </is>
       </c>
       <c r="B1613" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1614">
@@ -16672,7 +16672,7 @@
         </is>
       </c>
       <c r="B1624" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1625">
@@ -16702,7 +16702,7 @@
         </is>
       </c>
       <c r="B1627" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1628">
@@ -16712,7 +16712,7 @@
         </is>
       </c>
       <c r="B1628" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1629">
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="B1629" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1630">
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="B1630" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1631">
@@ -16742,7 +16742,7 @@
         </is>
       </c>
       <c r="B1631" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1632">
@@ -16752,7 +16752,7 @@
         </is>
       </c>
       <c r="B1632" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1633">
@@ -16762,7 +16762,7 @@
         </is>
       </c>
       <c r="B1633" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1634">
@@ -16812,7 +16812,7 @@
         </is>
       </c>
       <c r="B1638" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1639">
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="B1650" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1651">
@@ -16942,7 +16942,7 @@
         </is>
       </c>
       <c r="B1651" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1652">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="B1652" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1653">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="B1655" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1656">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="B1660" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1661">
@@ -17042,7 +17042,7 @@
         </is>
       </c>
       <c r="B1661" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1662">
@@ -17062,7 +17062,7 @@
         </is>
       </c>
       <c r="B1663" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1664">
@@ -17072,7 +17072,7 @@
         </is>
       </c>
       <c r="B1664" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1665">
@@ -17082,7 +17082,7 @@
         </is>
       </c>
       <c r="B1665" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1666">
@@ -17162,7 +17162,7 @@
         </is>
       </c>
       <c r="B1673" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1674">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="B1677" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1678">
@@ -17262,7 +17262,7 @@
         </is>
       </c>
       <c r="B1683" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1684">
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="B1684" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1685">
@@ -17282,7 +17282,7 @@
         </is>
       </c>
       <c r="B1685" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1686">
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="B1686" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1687">
@@ -17322,7 +17322,7 @@
         </is>
       </c>
       <c r="B1689" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1690">
@@ -17332,7 +17332,7 @@
         </is>
       </c>
       <c r="B1690" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1691">
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="B1693" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1694">
@@ -17372,7 +17372,7 @@
         </is>
       </c>
       <c r="B1694" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1695">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="B1697" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1698">
@@ -17462,7 +17462,7 @@
         </is>
       </c>
       <c r="B1703" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1704">
@@ -17582,7 +17582,7 @@
         </is>
       </c>
       <c r="B1715" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1716">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="B1720" t="n">
-        <v>108</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1721">
@@ -17672,7 +17672,7 @@
         </is>
       </c>
       <c r="B1724" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1725">
@@ -17692,7 +17692,7 @@
         </is>
       </c>
       <c r="B1726" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1727">
@@ -17712,7 +17712,7 @@
         </is>
       </c>
       <c r="B1728" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1729">
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="B1730" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1731">
@@ -17742,7 +17742,7 @@
         </is>
       </c>
       <c r="B1731" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1732">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="B1732" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1733">
@@ -17782,7 +17782,7 @@
         </is>
       </c>
       <c r="B1735" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1736">
@@ -17792,7 +17792,7 @@
         </is>
       </c>
       <c r="B1736" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1737">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="B1737" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1738">
@@ -17882,7 +17882,7 @@
         </is>
       </c>
       <c r="B1745" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1746">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="B1752" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1753">
@@ -18012,7 +18012,7 @@
         </is>
       </c>
       <c r="B1758" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1759">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="B1762" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1763">
@@ -18172,7 +18172,7 @@
         </is>
       </c>
       <c r="B1774" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1775">
@@ -18222,7 +18222,7 @@
         </is>
       </c>
       <c r="B1779" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1780">
@@ -18232,7 +18232,7 @@
         </is>
       </c>
       <c r="B1780" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1781">
@@ -18242,7 +18242,7 @@
         </is>
       </c>
       <c r="B1781" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1782">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="B1787" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1788">
@@ -18472,7 +18472,7 @@
         </is>
       </c>
       <c r="B1804" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1805">
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="B1806" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="B1810" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1811">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="B1812" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1813">
@@ -18582,7 +18582,7 @@
         </is>
       </c>
       <c r="B1815" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1816">
@@ -18772,7 +18772,7 @@
         </is>
       </c>
       <c r="B1834" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -18782,7 +18782,7 @@
         </is>
       </c>
       <c r="B1835" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1836">
@@ -18872,7 +18872,7 @@
         </is>
       </c>
       <c r="B1844" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1845">
@@ -18992,7 +18992,7 @@
         </is>
       </c>
       <c r="B1856" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1857">
@@ -19062,7 +19062,7 @@
         </is>
       </c>
       <c r="B1863" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1864">
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="B1864" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1865">
@@ -19082,7 +19082,7 @@
         </is>
       </c>
       <c r="B1865" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1866">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="B1882" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -19262,7 +19262,7 @@
         </is>
       </c>
       <c r="B1883" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1884">
@@ -19472,7 +19472,7 @@
         </is>
       </c>
       <c r="B1904" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -19492,7 +19492,7 @@
         </is>
       </c>
       <c r="B1906" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="B1913" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="B1922" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1923">
@@ -19672,7 +19672,7 @@
         </is>
       </c>
       <c r="B1924" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1925">
@@ -19722,7 +19722,7 @@
         </is>
       </c>
       <c r="B1929" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1930">
@@ -19742,7 +19742,7 @@
         </is>
       </c>
       <c r="B1931" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1932">
@@ -20122,7 +20122,7 @@
         </is>
       </c>
       <c r="B1969" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1970">
@@ -20172,7 +20172,7 @@
         </is>
       </c>
       <c r="B1974" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1975">
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="B1978" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1979">
@@ -20232,7 +20232,7 @@
         </is>
       </c>
       <c r="B1980" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1981">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="B1987" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1988">
@@ -20312,7 +20312,7 @@
         </is>
       </c>
       <c r="B1988" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -20322,7 +20322,7 @@
         </is>
       </c>
       <c r="B1989" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1990">
@@ -20442,7 +20442,7 @@
         </is>
       </c>
       <c r="B2001" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2002">
@@ -20462,7 +20462,7 @@
         </is>
       </c>
       <c r="B2003" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2004">
@@ -20482,7 +20482,7 @@
         </is>
       </c>
       <c r="B2005" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2006">
@@ -20532,7 +20532,7 @@
         </is>
       </c>
       <c r="B2010" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2011">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="B2012" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2013">
@@ -20582,7 +20582,7 @@
         </is>
       </c>
       <c r="B2015" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2016">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="B2017" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2018">
@@ -20642,7 +20642,7 @@
         </is>
       </c>
       <c r="B2021" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2022">
@@ -20672,7 +20672,7 @@
         </is>
       </c>
       <c r="B2024" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2025">
@@ -20742,7 +20742,7 @@
         </is>
       </c>
       <c r="B2031" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2032">
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="B2046" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2047">
@@ -20912,7 +20912,7 @@
         </is>
       </c>
       <c r="B2048" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2049">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="B2057" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2058">
@@ -21022,7 +21022,7 @@
         </is>
       </c>
       <c r="B2059" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2060">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="B2087" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2088">
@@ -21342,7 +21342,7 @@
         </is>
       </c>
       <c r="B2091" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2092">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="B2092" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2093">
@@ -21382,7 +21382,7 @@
         </is>
       </c>
       <c r="B2095" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2096">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="B2097" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2098">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="B2102" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2103">
@@ -21482,7 +21482,7 @@
         </is>
       </c>
       <c r="B2105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2106">
@@ -21492,7 +21492,7 @@
         </is>
       </c>
       <c r="B2106" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2107">
@@ -21522,7 +21522,7 @@
         </is>
       </c>
       <c r="B2109" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2110">
@@ -21532,7 +21532,7 @@
         </is>
       </c>
       <c r="B2110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2111">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="B2112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -21562,7 +21562,7 @@
         </is>
       </c>
       <c r="B2113" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2114">
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="B2116" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="B2122" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2123">
@@ -21782,7 +21782,7 @@
         </is>
       </c>
       <c r="B2135" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2136">
@@ -21912,7 +21912,7 @@
         </is>
       </c>
       <c r="B2148" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2149">
@@ -22142,7 +22142,7 @@
         </is>
       </c>
       <c r="B2171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2172">
@@ -22182,7 +22182,7 @@
         </is>
       </c>
       <c r="B2175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2176">
@@ -22192,7 +22192,7 @@
         </is>
       </c>
       <c r="B2176" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2177">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="B2177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2178">
@@ -22242,7 +22242,7 @@
         </is>
       </c>
       <c r="B2181" t="n">
-        <v>276</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2182">
@@ -22392,7 +22392,7 @@
         </is>
       </c>
       <c r="B2196" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -22432,7 +22432,7 @@
         </is>
       </c>
       <c r="B2200" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2201">
@@ -22442,7 +22442,7 @@
         </is>
       </c>
       <c r="B2201" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2202">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="B2222" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2223">
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="B2224" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2225">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="B2232" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -22822,7 +22822,7 @@
         </is>
       </c>
       <c r="B2239" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2240">
@@ -22882,7 +22882,7 @@
         </is>
       </c>
       <c r="B2245" t="n">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2246">
@@ -22912,7 +22912,7 @@
         </is>
       </c>
       <c r="B2248" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -23092,7 +23092,7 @@
         </is>
       </c>
       <c r="B2266" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2267">
@@ -23132,7 +23132,7 @@
         </is>
       </c>
       <c r="B2270" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="B2282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2283">
@@ -23272,7 +23272,7 @@
         </is>
       </c>
       <c r="B2284" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2285">
@@ -23512,7 +23512,7 @@
         </is>
       </c>
       <c r="B2308" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2309">
@@ -23582,7 +23582,7 @@
         </is>
       </c>
       <c r="B2315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2316">
@@ -23612,7 +23612,7 @@
         </is>
       </c>
       <c r="B2318" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2319">
@@ -23742,7 +23742,7 @@
         </is>
       </c>
       <c r="B2331" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2332">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="B2332" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2333">
@@ -23762,7 +23762,7 @@
         </is>
       </c>
       <c r="B2333" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2334">
@@ -23782,7 +23782,7 @@
         </is>
       </c>
       <c r="B2335" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2336">
@@ -23792,7 +23792,7 @@
         </is>
       </c>
       <c r="B2336" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2337">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="B2337" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2338">
@@ -23812,7 +23812,7 @@
         </is>
       </c>
       <c r="B2338" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2339">
@@ -23842,7 +23842,7 @@
         </is>
       </c>
       <c r="B2341" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2342">
@@ -23912,7 +23912,7 @@
         </is>
       </c>
       <c r="B2348" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2349">
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="B2350" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2351">
@@ -24082,7 +24082,7 @@
         </is>
       </c>
       <c r="B2365" t="n">
-        <v>112</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2366">
@@ -24112,7 +24112,7 @@
         </is>
       </c>
       <c r="B2368" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2369">
@@ -24212,7 +24212,7 @@
         </is>
       </c>
       <c r="B2378" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2379">
@@ -24262,7 +24262,7 @@
         </is>
       </c>
       <c r="B2383" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2384">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B2385" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2386">
@@ -24422,7 +24422,7 @@
         </is>
       </c>
       <c r="B2399" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2400">
@@ -24492,7 +24492,7 @@
         </is>
       </c>
       <c r="B2406" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2407">
@@ -24512,7 +24512,7 @@
         </is>
       </c>
       <c r="B2408" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2409">
@@ -24582,7 +24582,7 @@
         </is>
       </c>
       <c r="B2415" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2416">
@@ -24662,7 +24662,7 @@
         </is>
       </c>
       <c r="B2423" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2424">
@@ -24702,7 +24702,7 @@
         </is>
       </c>
       <c r="B2427" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2428">
@@ -24732,7 +24732,7 @@
         </is>
       </c>
       <c r="B2430" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2431">
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="B2449" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2450">
@@ -24952,7 +24952,7 @@
         </is>
       </c>
       <c r="B2452" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2453">
@@ -25022,7 +25022,7 @@
         </is>
       </c>
       <c r="B2459" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2460">
@@ -25092,7 +25092,7 @@
         </is>
       </c>
       <c r="B2466" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2467">
@@ -25182,7 +25182,7 @@
         </is>
       </c>
       <c r="B2475" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2476">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B2480" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2481">
@@ -25262,7 +25262,7 @@
         </is>
       </c>
       <c r="B2483" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2484">
@@ -25322,7 +25322,7 @@
         </is>
       </c>
       <c r="B2489" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2490">
@@ -25432,7 +25432,7 @@
         </is>
       </c>
       <c r="B2500" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2501">
@@ -25472,7 +25472,7 @@
         </is>
       </c>
       <c r="B2504" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2505">
@@ -25482,7 +25482,7 @@
         </is>
       </c>
       <c r="B2505" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2506">
@@ -25502,7 +25502,7 @@
         </is>
       </c>
       <c r="B2507" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2508">
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="B2512" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2513">
@@ -25562,7 +25562,7 @@
         </is>
       </c>
       <c r="B2513" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2514">
@@ -25572,7 +25572,7 @@
         </is>
       </c>
       <c r="B2514" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2515">
@@ -25682,7 +25682,7 @@
         </is>
       </c>
       <c r="B2525" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2526">
@@ -25752,7 +25752,7 @@
         </is>
       </c>
       <c r="B2532" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2533">
@@ -25802,7 +25802,7 @@
         </is>
       </c>
       <c r="B2537" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2538">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B2543" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2544">
@@ -25902,7 +25902,7 @@
         </is>
       </c>
       <c r="B2547" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2548">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B2559" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2560">
@@ -26252,7 +26252,7 @@
         </is>
       </c>
       <c r="B2582" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -26272,7 +26272,7 @@
         </is>
       </c>
       <c r="B2584" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2585">
@@ -26282,7 +26282,7 @@
         </is>
       </c>
       <c r="B2585" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2586">
@@ -26332,7 +26332,7 @@
         </is>
       </c>
       <c r="B2590" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2591">
@@ -26352,7 +26352,7 @@
         </is>
       </c>
       <c r="B2592" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2593">
@@ -26492,7 +26492,7 @@
         </is>
       </c>
       <c r="B2606" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2607">
@@ -26512,7 +26512,7 @@
         </is>
       </c>
       <c r="B2608" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2609">
@@ -26642,7 +26642,7 @@
         </is>
       </c>
       <c r="B2621" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2622">
@@ -26692,7 +26692,7 @@
         </is>
       </c>
       <c r="B2626" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2627">
@@ -26832,7 +26832,7 @@
         </is>
       </c>
       <c r="B2640" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -26852,7 +26852,7 @@
         </is>
       </c>
       <c r="B2642" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2643">
@@ -26892,7 +26892,7 @@
         </is>
       </c>
       <c r="B2646" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -26932,7 +26932,7 @@
         </is>
       </c>
       <c r="B2650" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2651">
@@ -26992,7 +26992,7 @@
         </is>
       </c>
       <c r="B2656" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -27002,7 +27002,7 @@
         </is>
       </c>
       <c r="B2657" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2658">
@@ -27052,7 +27052,7 @@
         </is>
       </c>
       <c r="B2662" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2663">
@@ -27062,7 +27062,7 @@
         </is>
       </c>
       <c r="B2663" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2664">
@@ -27072,7 +27072,7 @@
         </is>
       </c>
       <c r="B2664" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2665">
@@ -27132,7 +27132,7 @@
         </is>
       </c>
       <c r="B2670" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2671">
@@ -27292,7 +27292,7 @@
         </is>
       </c>
       <c r="B2686" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2687">
@@ -27302,7 +27302,7 @@
         </is>
       </c>
       <c r="B2687" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2688">
@@ -27312,7 +27312,7 @@
         </is>
       </c>
       <c r="B2688" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2689">
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="B2692" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -27432,7 +27432,7 @@
         </is>
       </c>
       <c r="B2700" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -27472,7 +27472,7 @@
         </is>
       </c>
       <c r="B2704" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -27492,7 +27492,7 @@
         </is>
       </c>
       <c r="B2706" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -27652,7 +27652,7 @@
         </is>
       </c>
       <c r="B2722" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2723">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B2726" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -27772,7 +27772,7 @@
         </is>
       </c>
       <c r="B2734" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -28122,7 +28122,7 @@
         </is>
       </c>
       <c r="B2769" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -28142,7 +28142,7 @@
         </is>
       </c>
       <c r="B2771" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -28232,7 +28232,7 @@
         </is>
       </c>
       <c r="B2780" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2781">
@@ -28342,7 +28342,7 @@
         </is>
       </c>
       <c r="B2791" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2792">
@@ -28392,7 +28392,7 @@
         </is>
       </c>
       <c r="B2796" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -28462,7 +28462,7 @@
         </is>
       </c>
       <c r="B2803" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2804">
@@ -28472,7 +28472,7 @@
         </is>
       </c>
       <c r="B2804" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B2805" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -28532,7 +28532,7 @@
         </is>
       </c>
       <c r="B2810" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -28562,7 +28562,7 @@
         </is>
       </c>
       <c r="B2813" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -28612,7 +28612,7 @@
         </is>
       </c>
       <c r="B2818" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -28662,7 +28662,7 @@
         </is>
       </c>
       <c r="B2823" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2824">
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="B2825" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -28692,7 +28692,7 @@
         </is>
       </c>
       <c r="B2826" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2827">
@@ -28702,7 +28702,7 @@
         </is>
       </c>
       <c r="B2827" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2828">
@@ -28752,7 +28752,7 @@
         </is>
       </c>
       <c r="B2832" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -28942,7 +28942,7 @@
         </is>
       </c>
       <c r="B2851" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2852">
@@ -28952,7 +28952,7 @@
         </is>
       </c>
       <c r="B2852" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -28972,7 +28972,7 @@
         </is>
       </c>
       <c r="B2854" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2855">
@@ -28982,7 +28982,7 @@
         </is>
       </c>
       <c r="B2855" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2856">
@@ -29172,7 +29172,7 @@
         </is>
       </c>
       <c r="B2874" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2875">
@@ -29202,7 +29202,7 @@
         </is>
       </c>
       <c r="B2877" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2878">
@@ -29402,7 +29402,7 @@
         </is>
       </c>
       <c r="B2897" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2898">
@@ -29412,7 +29412,7 @@
         </is>
       </c>
       <c r="B2898" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2899">
@@ -29442,7 +29442,7 @@
         </is>
       </c>
       <c r="B2901" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2902">
@@ -29592,7 +29592,7 @@
         </is>
       </c>
       <c r="B2916" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2917">
@@ -29752,7 +29752,7 @@
         </is>
       </c>
       <c r="B2932" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2933">
@@ -29762,7 +29762,7 @@
         </is>
       </c>
       <c r="B2933" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2934">
@@ -29842,7 +29842,7 @@
         </is>
       </c>
       <c r="B2941" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2942">
@@ -29852,7 +29852,7 @@
         </is>
       </c>
       <c r="B2942" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2943">
@@ -29862,7 +29862,7 @@
         </is>
       </c>
       <c r="B2943" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2944">
@@ -29872,7 +29872,7 @@
         </is>
       </c>
       <c r="B2944" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2945">
@@ -29972,7 +29972,7 @@
         </is>
       </c>
       <c r="B2954" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2955">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B2963" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2964">
@@ -30242,7 +30242,7 @@
         </is>
       </c>
       <c r="B2981" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2982">
@@ -30292,7 +30292,7 @@
         </is>
       </c>
       <c r="B2986" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2987">
@@ -30302,7 +30302,7 @@
         </is>
       </c>
       <c r="B2987" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2988">
@@ -30382,7 +30382,7 @@
         </is>
       </c>
       <c r="B2995" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2996">
@@ -30502,7 +30502,7 @@
         </is>
       </c>
       <c r="B3007" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3008">
@@ -30532,7 +30532,7 @@
         </is>
       </c>
       <c r="B3010" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3011">
@@ -30582,7 +30582,7 @@
         </is>
       </c>
       <c r="B3015" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3016">
@@ -30612,7 +30612,7 @@
         </is>
       </c>
       <c r="B3018" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3019">
@@ -30652,7 +30652,7 @@
         </is>
       </c>
       <c r="B3022" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3023">
@@ -30742,7 +30742,7 @@
         </is>
       </c>
       <c r="B3031" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3032">
@@ -30772,7 +30772,7 @@
         </is>
       </c>
       <c r="B3034" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3035">
@@ -30822,7 +30822,7 @@
         </is>
       </c>
       <c r="B3039" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3040">
@@ -30922,7 +30922,7 @@
         </is>
       </c>
       <c r="B3049" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3050">
@@ -31012,7 +31012,7 @@
         </is>
       </c>
       <c r="B3058" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3059">
@@ -31142,7 +31142,7 @@
         </is>
       </c>
       <c r="B3071" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3072">
@@ -31212,7 +31212,7 @@
         </is>
       </c>
       <c r="B3078" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3079">
@@ -31252,7 +31252,7 @@
         </is>
       </c>
       <c r="B3082" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3083">
@@ -31482,7 +31482,7 @@
         </is>
       </c>
       <c r="B3105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3106">
@@ -31622,7 +31622,7 @@
         </is>
       </c>
       <c r="B3119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3120">
@@ -31652,7 +31652,7 @@
         </is>
       </c>
       <c r="B3122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3123">
@@ -31662,7 +31662,7 @@
         </is>
       </c>
       <c r="B3123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3124">
@@ -31902,7 +31902,7 @@
         </is>
       </c>
       <c r="B3147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3148">
@@ -31992,7 +31992,7 @@
         </is>
       </c>
       <c r="B3156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3157">
@@ -32002,7 +32002,7 @@
         </is>
       </c>
       <c r="B3157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3158">
@@ -32142,7 +32142,7 @@
         </is>
       </c>
       <c r="B3171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3172">
@@ -32202,7 +32202,7 @@
         </is>
       </c>
       <c r="B3177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3178">
@@ -32252,7 +32252,7 @@
         </is>
       </c>
       <c r="B3182" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3183">
@@ -32282,7 +32282,7 @@
         </is>
       </c>
       <c r="B3185" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3186">
@@ -32302,7 +32302,7 @@
         </is>
       </c>
       <c r="B3187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3188">
@@ -32472,7 +32472,7 @@
         </is>
       </c>
       <c r="B3204" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3205">
@@ -32482,7 +32482,7 @@
         </is>
       </c>
       <c r="B3205" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3206">
@@ -32542,7 +32542,7 @@
         </is>
       </c>
       <c r="B3211" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3212">
@@ -32622,7 +32622,7 @@
         </is>
       </c>
       <c r="B3219" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3220">
@@ -32632,7 +32632,7 @@
         </is>
       </c>
       <c r="B3220" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3221">
@@ -32692,7 +32692,7 @@
         </is>
       </c>
       <c r="B3226" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3227">
@@ -32802,7 +32802,7 @@
         </is>
       </c>
       <c r="B3237" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3238">
@@ -32852,7 +32852,7 @@
         </is>
       </c>
       <c r="B3242" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3243">
@@ -32932,7 +32932,7 @@
         </is>
       </c>
       <c r="B3250" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3251">
@@ -33022,7 +33022,7 @@
         </is>
       </c>
       <c r="B3259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3260">
@@ -33092,7 +33092,7 @@
         </is>
       </c>
       <c r="B3266" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3267">
@@ -33102,7 +33102,7 @@
         </is>
       </c>
       <c r="B3267" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3268">
@@ -33142,7 +33142,7 @@
         </is>
       </c>
       <c r="B3271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3272">
@@ -33152,7 +33152,7 @@
         </is>
       </c>
       <c r="B3272" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3273">
@@ -33172,7 +33172,7 @@
         </is>
       </c>
       <c r="B3274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3275">
@@ -33222,7 +33222,7 @@
         </is>
       </c>
       <c r="B3279" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3280">
@@ -33432,7 +33432,7 @@
         </is>
       </c>
       <c r="B3300" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3301">
@@ -33472,7 +33472,7 @@
         </is>
       </c>
       <c r="B3304" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3305">
@@ -33512,7 +33512,7 @@
         </is>
       </c>
       <c r="B3308" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3309">
@@ -33582,7 +33582,7 @@
         </is>
       </c>
       <c r="B3315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3316">
@@ -33622,7 +33622,7 @@
         </is>
       </c>
       <c r="B3319" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3320">
@@ -33682,7 +33682,7 @@
         </is>
       </c>
       <c r="B3325" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3326">
@@ -33732,7 +33732,7 @@
         </is>
       </c>
       <c r="B3330" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3331">
@@ -34152,7 +34152,7 @@
         </is>
       </c>
       <c r="B3372" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3373">
@@ -34252,7 +34252,7 @@
         </is>
       </c>
       <c r="B3382" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3383">
@@ -34302,7 +34302,7 @@
         </is>
       </c>
       <c r="B3387" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3388">
@@ -34492,7 +34492,7 @@
         </is>
       </c>
       <c r="B3406" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3407">
@@ -34582,7 +34582,7 @@
         </is>
       </c>
       <c r="B3415" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3416">
@@ -34672,7 +34672,7 @@
         </is>
       </c>
       <c r="B3424" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3425">
@@ -34692,7 +34692,7 @@
         </is>
       </c>
       <c r="B3426" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3427">
@@ -34722,7 +34722,7 @@
         </is>
       </c>
       <c r="B3429" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3430">
@@ -34782,7 +34782,7 @@
         </is>
       </c>
       <c r="B3435" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3436">
@@ -34942,7 +34942,7 @@
         </is>
       </c>
       <c r="B3451" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3452">
@@ -35052,7 +35052,7 @@
         </is>
       </c>
       <c r="B3462" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3463">
@@ -35112,7 +35112,7 @@
         </is>
       </c>
       <c r="B3468" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3469">
@@ -35182,7 +35182,7 @@
         </is>
       </c>
       <c r="B3475" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3476">
@@ -35252,7 +35252,7 @@
         </is>
       </c>
       <c r="B3482" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3483">
@@ -35292,7 +35292,7 @@
         </is>
       </c>
       <c r="B3486" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3487">
@@ -35312,7 +35312,7 @@
         </is>
       </c>
       <c r="B3488" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3489">
@@ -35332,7 +35332,7 @@
         </is>
       </c>
       <c r="B3490" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3491">
@@ -35352,7 +35352,7 @@
         </is>
       </c>
       <c r="B3492" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3493">
@@ -35522,7 +35522,7 @@
         </is>
       </c>
       <c r="B3509" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3510">
@@ -35602,7 +35602,7 @@
         </is>
       </c>
       <c r="B3517" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3518">
@@ -35662,7 +35662,7 @@
         </is>
       </c>
       <c r="B3523" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3524">
@@ -35702,7 +35702,7 @@
         </is>
       </c>
       <c r="B3527" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3528">
@@ -35712,7 +35712,7 @@
         </is>
       </c>
       <c r="B3528" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3529">
@@ -35732,7 +35732,7 @@
         </is>
       </c>
       <c r="B3530" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3531">
@@ -35742,7 +35742,7 @@
         </is>
       </c>
       <c r="B3531" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3532">
@@ -36222,7 +36222,7 @@
         </is>
       </c>
       <c r="B3579" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3580">
@@ -36332,7 +36332,7 @@
         </is>
       </c>
       <c r="B3590" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3591">
@@ -36422,7 +36422,7 @@
         </is>
       </c>
       <c r="B3599" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3600">
@@ -36522,7 +36522,7 @@
         </is>
       </c>
       <c r="B3609" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3610">
@@ -36572,7 +36572,7 @@
         </is>
       </c>
       <c r="B3614" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3615">
@@ -36672,7 +36672,7 @@
         </is>
       </c>
       <c r="B3624" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3625">
@@ -36942,7 +36942,7 @@
         </is>
       </c>
       <c r="B3651" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3652">
@@ -37062,7 +37062,7 @@
         </is>
       </c>
       <c r="B3663" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3664">
@@ -37122,7 +37122,7 @@
         </is>
       </c>
       <c r="B3669" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3670">
@@ -37612,7 +37612,7 @@
         </is>
       </c>
       <c r="B3718" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3719">
@@ -37642,7 +37642,7 @@
         </is>
       </c>
       <c r="B3721" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3722">
@@ -37722,7 +37722,7 @@
         </is>
       </c>
       <c r="B3729" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3730">
@@ -37852,7 +37852,7 @@
         </is>
       </c>
       <c r="B3742" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3743">
